--- a/target.xlsx
+++ b/target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\Desktop\startbootstrap-creative-gh-pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\Desktop\Auto TDRs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
   <si>
     <t>Service URL</t>
   </si>
@@ -72,9 +72,6 @@
     <t>end-of-list</t>
   </si>
   <si>
-    <t>kay</t>
-  </si>
-  <si>
     <t>mmc</t>
   </si>
   <si>
@@ -111,64 +108,73 @@
     <t>customerPartyVBO[0].marketingPreferences.permissionsList[0].bewVersion</t>
   </si>
   <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].permissionValue</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].permissionValue</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].permissionValue</t>
+  </si>
+  <si>
+    <t>BAN</t>
+  </si>
+  <si>
+    <t>{baseURL}/api/de-web/enterprise-resources/core/bss/cus-nil/mobile/customer/customer-parties/{msisdn}/marketing-indicators?market-code=MMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO </t>
+  </si>
+  <si>
+    <t>record 2</t>
+  </si>
+  <si>
+    <t>marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false </t>
+  </si>
+  <si>
+    <t>record 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDEV </t>
+  </si>
+  <si>
+    <t>test.demo2</t>
+  </si>
+  <si>
+    <t>test.demo3</t>
+  </si>
+  <si>
+    <t>PDEV13</t>
+  </si>
+  <si>
+    <t>PDEV14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].serviceId</t>
   </si>
   <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].serviceId</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].permissionValue</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].permissionValue</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].serviceId</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].permissionValue</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[3].serviceId</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[3].permissionValue</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[4].serviceId</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[4].permissionValue</t>
-  </si>
-  <si>
-    <t>BAN</t>
-  </si>
-  <si>
-    <t>{baseURL}/api/de-web/enterprise-resources/core/bss/cus-nil/mobile/customer/customer-parties/{msisdn}/marketing-indicators?market-code=MMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDEV </t>
-  </si>
-  <si>
-    <t>3 |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDEV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WBT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUT </t>
-  </si>
-  <si>
-    <t>bew.kay.multi22</t>
+    <t>test.lobna</t>
+  </si>
+  <si>
+    <t>CDEV</t>
+  </si>
+  <si>
+    <t>GEOLobna</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,18 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -408,7 +402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -471,13 +465,7 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,17 +499,14 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -830,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,11 +828,13 @@
     <col min="3" max="3" width="34.88671875" customWidth="1"/>
     <col min="4" max="4" width="73.77734375" customWidth="1"/>
     <col min="5" max="5" width="35" style="13" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="30" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -858,121 +845,187 @@
       <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="27">
+        <v>2</v>
+      </c>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="31">
-        <v>4915222089999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="29">
+        <v>100000088888</v>
+      </c>
+      <c r="F9" s="29">
+        <v>10000009999</v>
+      </c>
+      <c r="G9" s="29">
+        <v>10000009977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -980,10 +1033,16 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -992,214 +1051,198 @@
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3</v>
+      </c>
+      <c r="F14" s="24">
+        <v>4</v>
+      </c>
+      <c r="G14" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>31</v>
+      <c r="D15" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" s="20">
         <v>1</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>30</v>
+      <c r="D17" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>34</v>
+      <c r="D19" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" s="21">
         <v>2</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="22">
-        <v>3</v>
-      </c>
-      <c r="D21" s="36" t="s">
+      <c r="D20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>36</v>
       </c>
+      <c r="F20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="22">
-        <v>3</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="23">
-        <v>4</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="23">
-        <v>4</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="39"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target.xlsx
+++ b/target.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\Desktop\startbootstrap-creative-gh-pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\Desktop\Stubs Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="6636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
   <si>
     <t>Service URL</t>
   </si>
@@ -45,6 +45,9 @@
     <t># of BANs/ACNs</t>
   </si>
   <si>
+    <t>BAN/ACN</t>
+  </si>
+  <si>
     <t># of MSISDNs</t>
   </si>
   <si>
@@ -75,12 +78,6 @@
     <t>mmc</t>
   </si>
   <si>
-    <t>kd</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>tn</t>
   </si>
   <si>
@@ -90,79 +87,169 @@
     <t>Success</t>
   </si>
   <si>
+    <t>ek</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>no specific</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>record 2</t>
+  </si>
+  <si>
+    <t>record 4</t>
+  </si>
+  <si>
+    <t>mmo</t>
+  </si>
+  <si>
+    <t>service spec name</t>
+  </si>
+  <si>
+    <t>record 3</t>
+  </si>
+  <si>
+    <t>Migrated</t>
+  </si>
+  <si>
+    <t>Login Username Compliant (ONB)</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Verified Email</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>marketing-indicators GET</t>
+  </si>
+  <si>
+    <t>marie</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>PDEV</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>CDEV</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>WBT</t>
+  </si>
+  <si>
+    <t>TOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customerPartyVBO[0].marketingPreferences.permissionsList[0].bewVersion </t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].permissionValue</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0].marketingPreferences.permissionsList[1].bewVersion</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].permissionValue</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0].marketingPreferences.permissionsList[2].bewVersion</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].permissionValue</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0].marketingPreferences.permissionsList[3].bewVersion</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[3].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[3].permissionValue</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0].marketingPreferences.permissionsList[4].bewVersion</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[4].serviceId</t>
+  </si>
+  <si>
+    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[4].permissionValue</t>
+  </si>
+  <si>
+    <t>321600890</t>
+  </si>
+  <si>
+    <t>321600891</t>
+  </si>
+  <si>
+    <t>321600892</t>
+  </si>
+  <si>
+    <t>321600893</t>
+  </si>
+  <si>
+    <t>/api/de-web/enterprise-resources/core/bss/cus-nil/mobile/customer/customer-parties/{msisdn}/marketing-indicators?market-code=MMC</t>
+  </si>
+  <si>
     <t>record 1</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>service spec name</t>
-  </si>
-  <si>
-    <t>marketing-indicators GET</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0].marketingPreferences.permissionsList[0].bewVersion</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].serviceId</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[0].permissionValue</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].permissionValue</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].serviceId</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[2].permissionValue</t>
-  </si>
-  <si>
-    <t>BAN</t>
-  </si>
-  <si>
-    <t>{baseURL}/api/de-web/enterprise-resources/core/bss/cus-nil/mobile/customer/customer-parties/{msisdn}/marketing-indicators?market-code=MMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO </t>
-  </si>
-  <si>
-    <t>record 2</t>
-  </si>
-  <si>
-    <t>marie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false </t>
-  </si>
-  <si>
-    <t>record 3</t>
-  </si>
-  <si>
-    <t>customerPartyVBO[0]. marketingPreferences. permissionsList[1].serviceIdded</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>PDEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDEV </t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>test4rty123</t>
+    <t>4915222077022</t>
+  </si>
+  <si>
+    <t>4915222077033</t>
+  </si>
+  <si>
+    <t>4915222077044</t>
+  </si>
+  <si>
+    <t>Peter.Bew111</t>
+  </si>
+  <si>
+    <t>Paul.Bew111</t>
+  </si>
+  <si>
+    <t>Paul.Bew112</t>
+  </si>
+  <si>
+    <t>GEO123</t>
+  </si>
+  <si>
+    <t>demo.Sunday</t>
+  </si>
+  <si>
+    <t>49152820712345</t>
+  </si>
+  <si>
+    <t>CDEV12</t>
   </si>
 </sst>
 </file>
@@ -172,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -238,15 +318,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -294,31 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2DAE4"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD6D4CA"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6D4CA"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -342,12 +403,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -370,19 +443,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -390,7 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -419,82 +479,94 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -803,436 +875,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="96.21875" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="4" width="73.77734375" customWidth="1"/>
-    <col min="5" max="5" width="35" style="13" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="30" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.77734375" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="26">
+      <c r="E6" s="34">
         <v>1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="34">
         <v>1</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="27">
-        <v>2</v>
-      </c>
-      <c r="F8" s="27">
-        <v>2</v>
-      </c>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="29">
-        <v>12345666666</v>
-      </c>
-      <c r="F9" s="29">
-        <v>5020300003</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1098763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="18">
+        <v>3</v>
+      </c>
+      <c r="F21" s="18">
+        <v>3</v>
+      </c>
+      <c r="G21" s="18">
+        <v>3</v>
+      </c>
+      <c r="H21" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="18">
+        <v>3</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18">
+        <v>3</v>
+      </c>
+      <c r="H24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="28">
+        <v>2</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="18">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3</v>
+      </c>
+      <c r="G27" s="18">
+        <v>3</v>
+      </c>
+      <c r="H27" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="30">
+        <v>3</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="30">
+        <v>3</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18">
+        <v>3</v>
+      </c>
+      <c r="G30" s="18">
+        <v>3</v>
+      </c>
+      <c r="H30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="32">
+        <v>4</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F33" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G33" s="35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="24">
-        <v>3</v>
-      </c>
-      <c r="F14" s="24">
-        <v>4</v>
-      </c>
-      <c r="G14" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="21">
-        <v>2</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="21">
-        <v>2</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="H33" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D17:H17"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 E13:H14 E16:H16">
+      <formula1>"Yes,No,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/target.xlsx
+++ b/target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\Desktop\Stubs Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ramez\Desktop\Stubs Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
   <si>
     <t>Service URL</t>
   </si>
@@ -243,19 +243,22 @@
     <t>GEO123</t>
   </si>
   <si>
-    <t>demo.Sunday</t>
-  </si>
-  <si>
-    <t>49152820712345</t>
-  </si>
-  <si>
     <t>CDEV12</t>
+  </si>
+  <si>
+    <t>RaniaAbdelMon</t>
+  </si>
+  <si>
+    <t>49152820712993</t>
+  </si>
+  <si>
+    <t>WBTNourhan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +930,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>70</v>
@@ -1067,7 +1070,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>67</v>
@@ -1351,7 +1354,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>42</v>
@@ -1507,7 +1510,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>44</v>

--- a/target.xlsx
+++ b/target.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramez\Desktop\Stubs Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RamezA\Desktop\Stubs Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t>Service URL</t>
   </si>
@@ -240,22 +240,28 @@
     <t>Paul.Bew112</t>
   </si>
   <si>
-    <t>GEO123</t>
-  </si>
-  <si>
-    <t>demo.Sunday</t>
-  </si>
-  <si>
-    <t>49152820712345</t>
-  </si>
-  <si>
     <t>CDEV12</t>
+  </si>
+  <si>
+    <t>Kickoff</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>MaiAbdelFatah</t>
+  </si>
+  <si>
+    <t>48917777777777</t>
+  </si>
+  <si>
+    <t>Mai124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -877,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +933,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>70</v>
@@ -1067,7 +1073,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>67</v>
@@ -1273,7 +1279,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>39</v>
@@ -1351,7 +1357,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>42</v>
@@ -1403,7 +1409,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F24" s="18">
         <v>3</v>
@@ -1429,7 +1435,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>43</v>
@@ -1507,7 +1513,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>44</v>
@@ -1559,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="E30" s="18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F30" s="18">
         <v>3</v>
@@ -1666,5 +1672,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K000000C2 General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>